--- a/Nevasa/InformeCompleto/20240902/20240902_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20240902/20240902_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,30 +742,30 @@
         <v>45537</v>
       </c>
       <c r="D8" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7000</v>
+        <v>17107918.896</v>
       </c>
       <c r="F8" t="n">
-        <v>272412916</v>
+        <v>17071733</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BCHIAB1211</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -782,30 +782,30 @@
         <v>45537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1885</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25000</v>
+        <v>18318864</v>
       </c>
       <c r="F9" t="n">
-        <v>946110133</v>
+        <v>18249966</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BTANN-AG</t>
+          <t>SQM-B</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -822,30 +822,30 @@
         <v>45537</v>
       </c>
       <c r="D10" t="n">
-        <v>5.723</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>60000000</v>
+        <v>1213863200</v>
       </c>
       <c r="F10" t="n">
-        <v>62939813</v>
+        <v>1210722400</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BTP0600433</t>
+          <t>MALLPLAZA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -862,148 +862,28 @@
         <v>45537</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>15867.18</v>
       </c>
       <c r="E11" t="n">
-        <v>17071733</v>
+        <v>64</v>
       </c>
       <c r="F11" t="n">
-        <v>17071733</v>
+        <v>1015500</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>CFINHRFLB</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>SIMULTANEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FONDO DE INVERSION NEVASA AHORRO</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>18249966</v>
-      </c>
-      <c r="F12" t="n">
-        <v>18249966</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>SQM-B</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>VENTA</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>SIMULTANEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>FONDO DE INVERSION NEVASA AHORRO</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1210722400</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1210722400</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>MALLPLAZA</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>VENTA</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>SIMULTANEA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FONDO DE INVERSION NEVASA AHORRO</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15867.18</v>
-      </c>
-      <c r="E14" t="n">
-        <v>64</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1015500</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CFINHRFLB</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t>RENTA VARIABLE</t>
         </is>
